--- a/biology/Botanique/Christian_Pessey/Christian_Pessey.xlsx
+++ b/biology/Botanique/Christian_Pessey/Christian_Pessey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Pessey est un journaliste de radio, fondateur de sites internet pratiques, auteur de nombreux ouvrages, spécialiste de la construction et de la rénovation des logements. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Pessey est journaliste et homme de radio, expert de la construction, de la rénovation et de l'aménagement de la maison, auteur de nombreux ouvrages sur le sujet.
 Recruté à 22 ans par les Éditions Alpha (Éditions Grange-Batelière, qui devaient devenir Atlas), il se voit confier la responsabilité du lancement de la première série fasciculaire sur la maison : La Boîte à Outils, fondée sur une approche méthodique et professionnalisée du bricolage. Il a produit de nombreuses séries sur la vie pratique.
 De formation historien-démographe, il est l'auteur de Votre Généalogie publié en 1988 chez RMC Édition et de À la recherche de vos ancêtres publié en 1999 chez Flammarion.
 Après 19 ans à l'antenne sur RMC (émission VOTRE MAISON, le samedi matin), il intervient sur le site www.reno-info-maison.com qu'il a créé et, depuis 2021, dans l'émission LA MAISON DE CHRISTIAN, diffusée en podcast, en web-TV et sur les réseaux sociaux. Il y répond aux particuliers sur les questions touchant à la maison, et il y reçoit des invités industriels, professionnels de la maison. L'émission est mise en ligne à 8:00, chaque samedi matin.
-Il a aussi publié deux ouvrages sur le monde viti-vinicole Bourguignon : Vins de Bourgogne (Histoire et Dégustation)[1] et ABCdaire des vins de Bourgogne[2].
+Il a aussi publié deux ouvrages sur le monde viti-vinicole Bourguignon : Vins de Bourgogne (Histoire et Dégustation) et ABCdaire des vins de Bourgogne.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vins de Bourgogne (Histoire et dégustations), édition : Flammarion, Paris, 2002, Histoire (91 pages) et Dégustations (93 pages)  (ISBN 2080110179)</t>
         </is>
